--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Nonlinear.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Nonlinear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC83D2FE-8F7A-4761-8346-BE900CCE42DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26076CE-CB0D-4F82-8F3B-B08F3696E58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="16596" windowHeight="10656" xr2:uid="{B9C97C16-4F33-494F-A20E-FB2F7931B984}"/>
+    <workbookView xWindow="1920" yWindow="1740" windowWidth="19650" windowHeight="11535" activeTab="1" xr2:uid="{B9C97C16-4F33-494F-A20E-FB2F7931B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -121,10 +123,10 @@
     <t>Used to set fVector</t>
   </si>
   <si>
-    <t>Nonlinear_Sedan_HambaLG_r</t>
-  </si>
-  <si>
-    <t>Nonlinear_Sedan_HambaLG_f</t>
+    <t>Sedan_HambaLG_Nonlinear_A1</t>
+  </si>
+  <si>
+    <t>Sedan_HambaLG_Nonlinear_A2</t>
   </si>
 </sst>
 </file>
@@ -684,12 +686,12 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +767,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1398,12 +1400,12 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J33" sqref="J33"/>
       <selection pane="topRight" activeCell="J33" sqref="J33"/>
       <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,7 +1481,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>

--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Nonlinear.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Nonlinear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26076CE-CB0D-4F82-8F3B-B08F3696E58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B6AF3-B057-4F62-AC5F-34D38412FB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1740" windowWidth="19650" windowHeight="11535" activeTab="1" xr2:uid="{B9C97C16-4F33-494F-A20E-FB2F7931B984}"/>
+    <workbookView xWindow="38205" yWindow="135" windowWidth="21600" windowHeight="12915" xr2:uid="{B9C97C16-4F33-494F-A20E-FB2F7931B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,6 +250,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -682,32 +687,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC9CE7D-54C3-4A7E-B39E-1647E14E16BD}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -727,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -758,7 +763,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -788,7 +793,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -809,7 +814,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -854,7 +859,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -905,7 +910,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>15</v>
@@ -914,14 +919,14 @@
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7">
-        <v>-0.05</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.62250000000000005</v>
+      <c r="F7" s="21">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.65</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="13" t="s">
@@ -940,7 +945,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="13" t="s">
         <v>18</v>
@@ -949,14 +954,14 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6.4299999999999968E-2</v>
+      <c r="F8" s="21">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.19</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -973,7 +978,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +1011,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14" t="s">
         <v>21</v>
@@ -1028,7 +1033,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -1050,7 +1055,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
@@ -1065,7 +1070,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
@@ -1080,7 +1085,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>26</v>
@@ -1095,7 +1100,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>27</v>
@@ -1110,17 +1115,17 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1142,7 +1147,7 @@
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1165,7 +1170,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1189,7 +1194,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1211,7 +1216,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1233,7 +1238,7 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1255,7 +1260,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1277,7 +1282,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1299,7 +1304,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1321,7 +1326,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1396,32 +1401,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F335D7F7-56E1-433C-803D-C75DA6F2F5F6}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J33" sqref="J33"/>
       <selection pane="topRight" activeCell="J33" sqref="J33"/>
       <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1441,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1477,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1502,7 +1507,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1528,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1573,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1619,7 +1624,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>15</v>
@@ -1628,14 +1633,14 @@
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7">
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.62250000000000005</v>
+      <c r="F7" s="22">
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.65</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>17</v>
@@ -1649,7 +1654,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="13" t="s">
         <v>18</v>
@@ -1658,14 +1663,14 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7">
-        <v>-6.3E-3</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4.6399999999999997E-2</v>
+      <c r="F8" s="22">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.19</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -1677,7 +1682,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1705,7 +1710,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14" t="s">
         <v>21</v>
@@ -1720,7 +1725,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -1735,7 +1740,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
@@ -1750,7 +1755,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
@@ -1765,7 +1770,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>26</v>
@@ -1780,7 +1785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>27</v>
@@ -1795,17 +1800,17 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1827,7 +1832,7 @@
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1850,7 +1855,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1874,7 +1879,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1896,7 +1901,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1918,7 +1923,7 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1940,7 +1945,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1962,7 +1967,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1984,7 +1989,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2006,7 +2011,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27"/>
       <c r="C27"/>
